--- a/results/Homeopathy_excluded/mod3.lreconBYhealth.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod3.lreconBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00233615245613029</v>
+        <v>-0.00233631208277872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0191909659397617</v>
+        <v>0.0191909366281468</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.039949754526598</v>
+        <v>-0.0399498567035369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0352774496143374</v>
+        <v>0.0352772325379795</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.12173188485995</v>
+        <v>-0.121740388603656</v>
       </c>
       <c r="H2" t="n">
-        <v>0.903111360551976</v>
+        <v>0.903104625636186</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0489958364649569</v>
+        <v>0.0489961951765851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0429919000097556</v>
+        <v>0.0429919001961875</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0352667391811111</v>
+        <v>-0.0352663808348829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133258412111025</v>
+        <v>0.133258771188053</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13965273583719</v>
+        <v>1.13966107459772</v>
       </c>
       <c r="H3" t="n">
-        <v>0.254431005424284</v>
+        <v>0.254427530007866</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0277266290542174</v>
+        <v>-0.027726713275007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0167457148394243</v>
+        <v>0.0167457085472363</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.060547627034867</v>
+        <v>-0.0605476989231946</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00509436892643212</v>
+        <v>0.00509427237318065</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.65574472753715</v>
+        <v>-1.65575037907745</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0977735253194709</v>
+        <v>0.0977723803399003</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0189330549546092</v>
+        <v>-0.0189331698187995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0154034925252505</v>
+        <v>0.0154034866896354</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0491233455402322</v>
+        <v>-0.0491234489668269</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0112572356310137</v>
+        <v>0.0112571093292279</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.22914039939791</v>
+        <v>-1.22914832208341</v>
       </c>
       <c r="H5" t="n">
-        <v>0.21901917039947</v>
+        <v>0.219016200461866</v>
       </c>
     </row>
   </sheetData>
